--- a/dataset/score.xlsx
+++ b/dataset/score.xlsx
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>

--- a/dataset/score.xlsx
+++ b/dataset/score.xlsx
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>

--- a/dataset/score.xlsx
+++ b/dataset/score.xlsx
@@ -457,16 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
